--- a/data/pca/factorExposure/factorExposure_2017-10-24.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-10-24.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.02393825084749099</v>
+        <v>0.01516788111309704</v>
       </c>
       <c r="C2">
-        <v>-0.004164194086023919</v>
+        <v>0.03834449579981485</v>
       </c>
       <c r="D2">
-        <v>-0.0147008923215144</v>
+        <v>0.0284052124807481</v>
       </c>
       <c r="E2">
-        <v>-0.01280533881220127</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.03120765081416782</v>
+      </c>
+      <c r="F2">
+        <v>0.02254006458602498</v>
+      </c>
+      <c r="G2">
+        <v>0.01758711427061158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.0124561666094362</v>
+        <v>0.05317387337339759</v>
       </c>
       <c r="C3">
-        <v>-0.04247267768160667</v>
+        <v>0.07804514818112317</v>
       </c>
       <c r="D3">
-        <v>-0.02101286524146562</v>
+        <v>0.01527775460821586</v>
       </c>
       <c r="E3">
-        <v>-0.01193215713031519</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>-0.09629975518156661</v>
+      </c>
+      <c r="F3">
+        <v>0.05454691260126758</v>
+      </c>
+      <c r="G3">
+        <v>0.07231038117485225</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.02216123719690081</v>
+        <v>0.05519034427586526</v>
       </c>
       <c r="C4">
-        <v>-0.01493790690353737</v>
+        <v>0.06369544477793784</v>
       </c>
       <c r="D4">
-        <v>-0.06473132044750704</v>
+        <v>0.02286301910630864</v>
       </c>
       <c r="E4">
-        <v>0.009486360587641957</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.01035949973826771</v>
+      </c>
+      <c r="F4">
+        <v>0.009310940353983773</v>
+      </c>
+      <c r="G4">
+        <v>0.04459410226023666</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.01497643705799068</v>
+        <v>0.03137351682529859</v>
       </c>
       <c r="C6">
-        <v>-0.02360693344208499</v>
+        <v>0.05376179867398564</v>
       </c>
       <c r="D6">
-        <v>-0.08475156394554044</v>
+        <v>0.01625017274453258</v>
       </c>
       <c r="E6">
-        <v>-0.004426130057759003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.007491969882970228</v>
+      </c>
+      <c r="F6">
+        <v>0.01410498208744578</v>
+      </c>
+      <c r="G6">
+        <v>0.02510036617290739</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.01039999649094998</v>
+        <v>0.01964236052366141</v>
       </c>
       <c r="C7">
-        <v>-0.006030662080197988</v>
+        <v>0.03621030391613299</v>
       </c>
       <c r="D7">
-        <v>-0.04051024921628926</v>
+        <v>0.01256644498536538</v>
       </c>
       <c r="E7">
-        <v>0.06725868615874428</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.01365565006278154</v>
+      </c>
+      <c r="F7">
+        <v>0.007863371964947592</v>
+      </c>
+      <c r="G7">
+        <v>0.07711015382974303</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>5.713564374926483e-05</v>
+        <v>-0.001111112892984379</v>
       </c>
       <c r="C8">
-        <v>0.006892060694449424</v>
+        <v>0.01504378731162872</v>
       </c>
       <c r="D8">
-        <v>-0.0194614248760222</v>
+        <v>0.003790554278999583</v>
       </c>
       <c r="E8">
-        <v>0.00310138890334111</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.01669438560605607</v>
+      </c>
+      <c r="F8">
+        <v>0.01338705183255042</v>
+      </c>
+      <c r="G8">
+        <v>0.02514894984915129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.0146032803498542</v>
+        <v>0.02843418322282008</v>
       </c>
       <c r="C9">
-        <v>-0.0145005411082635</v>
+        <v>0.04315578724846648</v>
       </c>
       <c r="D9">
-        <v>-0.04721526017799987</v>
+        <v>0.01590022752168548</v>
       </c>
       <c r="E9">
-        <v>2.079316582164201e-05</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.01270439387168161</v>
+      </c>
+      <c r="F9">
+        <v>0.01687604039202006</v>
+      </c>
+      <c r="G9">
+        <v>0.03598216211862363</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.008544580970235626</v>
+        <v>0.09169534354012472</v>
       </c>
       <c r="C10">
-        <v>-0.1423166673660874</v>
+        <v>-0.1840911647894039</v>
       </c>
       <c r="D10">
-        <v>0.1319464282010662</v>
+        <v>-0.01856958023909232</v>
       </c>
       <c r="E10">
-        <v>0.02714189128603986</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.0173339801066017</v>
+      </c>
+      <c r="F10">
+        <v>-0.01195515358708739</v>
+      </c>
+      <c r="G10">
+        <v>0.04114071728547368</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.0001635044110703822</v>
+        <v>0.03459040413443586</v>
       </c>
       <c r="C11">
-        <v>-0.006159755218422184</v>
+        <v>0.05441166422628475</v>
       </c>
       <c r="D11">
-        <v>-0.04507580405339399</v>
+        <v>0.001829628280999712</v>
       </c>
       <c r="E11">
-        <v>-0.01422467977071649</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.001754264540112369</v>
+      </c>
+      <c r="F11">
+        <v>0.02225813774750878</v>
+      </c>
+      <c r="G11">
+        <v>0.01820326391406542</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.005389822655723351</v>
+        <v>0.03204116374064151</v>
       </c>
       <c r="C12">
-        <v>-0.01522141359236478</v>
+        <v>0.04614327778609713</v>
       </c>
       <c r="D12">
-        <v>-0.04780343127053815</v>
+        <v>0.005780288120737888</v>
       </c>
       <c r="E12">
-        <v>-0.005817583385649845</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.006646092358694273</v>
+      </c>
+      <c r="F12">
+        <v>0.005992808516678397</v>
+      </c>
+      <c r="G12">
+        <v>0.02273761352289587</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.02129718196060243</v>
+        <v>0.01276228125464574</v>
       </c>
       <c r="C13">
-        <v>-0.01501362860918796</v>
+        <v>0.03115544861472087</v>
       </c>
       <c r="D13">
-        <v>-0.01176354183105562</v>
+        <v>0.02477488815761888</v>
       </c>
       <c r="E13">
-        <v>-0.00865322005513432</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.02595344829454881</v>
+      </c>
+      <c r="F13">
+        <v>0.01359424957500137</v>
+      </c>
+      <c r="G13">
+        <v>0.03184703466143698</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.006950053217407661</v>
+        <v>0.008645339290089779</v>
       </c>
       <c r="C14">
-        <v>-0.01541358911657563</v>
+        <v>0.02661070363057064</v>
       </c>
       <c r="D14">
-        <v>-0.01625806175935684</v>
+        <v>0.008409447346579259</v>
       </c>
       <c r="E14">
-        <v>0.009934332194723949</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.006455841502598818</v>
+      </c>
+      <c r="F14">
+        <v>-0.0008597557032779703</v>
+      </c>
+      <c r="G14">
+        <v>0.03821289250306479</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.0006474698760784533</v>
+        <v>0.03150221375637248</v>
       </c>
       <c r="C16">
-        <v>-0.01283128058375658</v>
+        <v>0.04489691782106101</v>
       </c>
       <c r="D16">
-        <v>-0.05071342143463888</v>
+        <v>0.001352776841621378</v>
       </c>
       <c r="E16">
-        <v>-0.008747134165785262</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.002971291029689785</v>
+      </c>
+      <c r="F16">
+        <v>0.006908626882509775</v>
+      </c>
+      <c r="G16">
+        <v>0.02229623558273163</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,61 +1108,85 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.01248227085923014</v>
+        <v>0.03036020583123665</v>
       </c>
       <c r="C19">
-        <v>-0.01969388867393998</v>
+        <v>0.05311921559552178</v>
       </c>
       <c r="D19">
-        <v>-0.02926423957057385</v>
+        <v>0.0157508711204042</v>
       </c>
       <c r="E19">
-        <v>0.001012351295003465</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.04915069581981103</v>
+      </c>
+      <c r="F19">
+        <v>0.02786371810730453</v>
+      </c>
+      <c r="G19">
+        <v>0.04279716693803248</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.01042362946325408</v>
+        <v>0.01224330919022757</v>
       </c>
       <c r="C20">
-        <v>-0.007184846919239407</v>
+        <v>0.0352927293999206</v>
       </c>
       <c r="D20">
-        <v>-0.01407269531629848</v>
+        <v>0.0131764461044379</v>
       </c>
       <c r="E20">
-        <v>-0.002608100643054125</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.02250346499635456</v>
+      </c>
+      <c r="F20">
+        <v>0.0005230644738512328</v>
+      </c>
+      <c r="G20">
+        <v>0.03614247062664169</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.01347324051059057</v>
+        <v>0.01471548373789594</v>
       </c>
       <c r="C21">
-        <v>-0.034646256143987</v>
+        <v>0.03376062191349341</v>
       </c>
       <c r="D21">
-        <v>-0.01607433670857429</v>
+        <v>0.01617698068506956</v>
       </c>
       <c r="E21">
-        <v>0.01891173084970579</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.03276386930939681</v>
+      </c>
+      <c r="F21">
+        <v>0.01024526329077442</v>
+      </c>
+      <c r="G21">
+        <v>0.05854411466688174</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1068,10 +1200,16 @@
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1085,61 +1223,85 @@
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.004652842468742955</v>
+        <v>0.02599723013394941</v>
       </c>
       <c r="C24">
-        <v>-0.007790127843199</v>
+        <v>0.04745823484030114</v>
       </c>
       <c r="D24">
-        <v>-0.04530850137022017</v>
+        <v>0.006557872984010156</v>
       </c>
       <c r="E24">
-        <v>-0.009280886592349541</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.002009458879860276</v>
+      </c>
+      <c r="F24">
+        <v>0.01869145197204748</v>
+      </c>
+      <c r="G24">
+        <v>0.02142476693908324</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.01090666007987907</v>
+        <v>0.04308810215736007</v>
       </c>
       <c r="C25">
-        <v>-0.02449865988329157</v>
+        <v>0.05478630633938732</v>
       </c>
       <c r="D25">
-        <v>-0.04446652629926195</v>
+        <v>0.01049967577610483</v>
       </c>
       <c r="E25">
-        <v>-0.008010661555172634</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.009595213869587662</v>
+      </c>
+      <c r="F25">
+        <v>0.01414754539545919</v>
+      </c>
+      <c r="G25">
+        <v>0.02717008795309087</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.02282048308630059</v>
+        <v>0.009007804671011381</v>
       </c>
       <c r="C26">
-        <v>-0.0084081547328573</v>
+        <v>0.01000535387410741</v>
       </c>
       <c r="D26">
-        <v>0.003242543130132676</v>
+        <v>0.02375961850462657</v>
       </c>
       <c r="E26">
-        <v>0.007659593988916634</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.007288181952364029</v>
+      </c>
+      <c r="F26">
+        <v>0.00265474391932076</v>
+      </c>
+      <c r="G26">
+        <v>0.02799583678032651</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.02538817685856601</v>
+        <v>0.1183879808556038</v>
       </c>
       <c r="C28">
-        <v>-0.2115409523110801</v>
+        <v>-0.2273095747746276</v>
       </c>
       <c r="D28">
-        <v>0.1887009636051687</v>
+        <v>-0.009692383368922889</v>
       </c>
       <c r="E28">
-        <v>0.04288908246095062</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.008964526053580559</v>
+      </c>
+      <c r="F28">
+        <v>-0.004834893270913478</v>
+      </c>
+      <c r="G28">
+        <v>0.0588886200406386</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.007129093906346754</v>
+        <v>0.01353464641217444</v>
       </c>
       <c r="C29">
-        <v>-0.01901909636175081</v>
+        <v>0.02064031710908917</v>
       </c>
       <c r="D29">
-        <v>-0.01398968706919907</v>
+        <v>0.00710036293118909</v>
       </c>
       <c r="E29">
-        <v>0.005636592787597176</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.007864943153078643</v>
+      </c>
+      <c r="F29">
+        <v>-0.01124170739295693</v>
+      </c>
+      <c r="G29">
+        <v>0.02844206685465349</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.02391959444666081</v>
+        <v>0.04484745790232016</v>
       </c>
       <c r="C30">
-        <v>-0.01214694786386325</v>
+        <v>0.07077349790866713</v>
       </c>
       <c r="D30">
-        <v>-0.06310926074389206</v>
+        <v>0.0272659560953786</v>
       </c>
       <c r="E30">
-        <v>-0.06543532718388012</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.03792731209371447</v>
+      </c>
+      <c r="F30">
+        <v>0.03990675262937059</v>
+      </c>
+      <c r="G30">
+        <v>0.00425475608327713</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.006515338916191825</v>
+        <v>0.04545153109546254</v>
       </c>
       <c r="C31">
-        <v>-0.04770064598657438</v>
+        <v>0.0310480903324249</v>
       </c>
       <c r="D31">
-        <v>-0.03815818987492888</v>
+        <v>0.002951953366981787</v>
       </c>
       <c r="E31">
-        <v>0.001480897144435108</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.01134179625698471</v>
+      </c>
+      <c r="F31">
+        <v>-0.0371889694043752</v>
+      </c>
+      <c r="G31">
+        <v>0.02641129663023553</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.007117454076100743</v>
+        <v>0.002936133555683545</v>
       </c>
       <c r="C32">
-        <v>-0.0115428831201676</v>
+        <v>0.03573477711721701</v>
       </c>
       <c r="D32">
-        <v>-0.01081743890217017</v>
+        <v>-0.004120195209092257</v>
       </c>
       <c r="E32">
-        <v>0.02346944523260391</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.01330858617525147</v>
+      </c>
+      <c r="F32">
+        <v>0.06840859239659053</v>
+      </c>
+      <c r="G32">
+        <v>0.04864054093938687</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.01200820925273197</v>
+        <v>0.02779642815782018</v>
       </c>
       <c r="C33">
-        <v>-0.0245998919522873</v>
+        <v>0.05151507908283911</v>
       </c>
       <c r="D33">
-        <v>-0.02260017474779882</v>
+        <v>0.01431937466886932</v>
       </c>
       <c r="E33">
-        <v>-0.02689524174496485</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.0225600514370347</v>
+      </c>
+      <c r="F33">
+        <v>0.02460198669956059</v>
+      </c>
+      <c r="G33">
+        <v>0.02864252437249724</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.005153396433681535</v>
+        <v>0.04440541930716243</v>
       </c>
       <c r="C34">
-        <v>-0.02045455279993896</v>
+        <v>0.05575882506926842</v>
       </c>
       <c r="D34">
-        <v>-0.04906308036425507</v>
+        <v>-0.005512899578488903</v>
       </c>
       <c r="E34">
-        <v>0.000262379280325211</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.01022730380587956</v>
+      </c>
+      <c r="F34">
+        <v>0.02294278065885776</v>
+      </c>
+      <c r="G34">
+        <v>0.03296506407534647</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01152093865977056</v>
+        <v>0.01116804289908122</v>
       </c>
       <c r="C36">
-        <v>-0.01802079094079639</v>
+        <v>0.007457016799700866</v>
       </c>
       <c r="D36">
-        <v>-0.001060418905228225</v>
+        <v>0.01131079746678839</v>
       </c>
       <c r="E36">
-        <v>0.002700549931215029</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.00194338710031264</v>
+      </c>
+      <c r="F36">
+        <v>-0.002204917424695315</v>
+      </c>
+      <c r="G36">
+        <v>0.02260486933443667</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.006486688459127363</v>
+        <v>0.03331079309843876</v>
       </c>
       <c r="C38">
-        <v>-0.02687945436387962</v>
+        <v>0.02633378970685982</v>
       </c>
       <c r="D38">
-        <v>-0.02511536553299277</v>
+        <v>-0.007953008966515875</v>
       </c>
       <c r="E38">
-        <v>-0.0007933375250531705</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.003032791701163901</v>
+      </c>
+      <c r="F38">
+        <v>-0.001290949131807043</v>
+      </c>
+      <c r="G38">
+        <v>0.02939310350030546</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.005965658954738843</v>
+        <v>0.03239422504773579</v>
       </c>
       <c r="C39">
-        <v>0.01358457315202214</v>
+        <v>0.08259621823118206</v>
       </c>
       <c r="D39">
-        <v>-0.09611193608459967</v>
+        <v>0.01204379709487141</v>
       </c>
       <c r="E39">
-        <v>-0.01905956306707324</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.02229830871597918</v>
+      </c>
+      <c r="F39">
+        <v>0.03610843961786343</v>
+      </c>
+      <c r="G39">
+        <v>0.0240498377540601</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01068259797529171</v>
+        <v>0.02110814693514982</v>
       </c>
       <c r="C40">
-        <v>-0.01678298551257905</v>
+        <v>0.03094677826000975</v>
       </c>
       <c r="D40">
-        <v>-0.04016212789181905</v>
+        <v>0.01306470048170847</v>
       </c>
       <c r="E40">
-        <v>-0.01289219185814533</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.02104622938555673</v>
+      </c>
+      <c r="F40">
+        <v>0.01789302306068506</v>
+      </c>
+      <c r="G40">
+        <v>0.02389867090230567</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.004876001623280799</v>
+        <v>0.0121241292451345</v>
       </c>
       <c r="C41">
-        <v>-0.01917248054227891</v>
+        <v>-0.0008716462660730555</v>
       </c>
       <c r="D41">
-        <v>0.008091484233138428</v>
+        <v>0.003516582487406613</v>
       </c>
       <c r="E41">
-        <v>0.003928889275197871</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.003489355196230629</v>
+      </c>
+      <c r="F41">
+        <v>0.0008078671406521663</v>
+      </c>
+      <c r="G41">
+        <v>0.01406317889573375</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.09197765121437584</v>
+        <v>0.02138970352866341</v>
       </c>
       <c r="C42">
-        <v>-0.0230374132840794</v>
+        <v>0.0494654719711525</v>
       </c>
       <c r="D42">
-        <v>-0.210036548443968</v>
+        <v>0.09793916929192248</v>
       </c>
       <c r="E42">
-        <v>-0.2831662191446699</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>-0.04242500234377624</v>
+      </c>
+      <c r="F42">
+        <v>-0.06723090704940012</v>
+      </c>
+      <c r="G42">
+        <v>-0.1791762676979969</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.005702235699056453</v>
+        <v>0.02833378399204183</v>
       </c>
       <c r="C43">
-        <v>-0.02206689800062005</v>
+        <v>0.00827163571562056</v>
       </c>
       <c r="D43">
-        <v>0.01273732192161488</v>
+        <v>0.003697713947649563</v>
       </c>
       <c r="E43">
-        <v>0.0008350012346183607</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.003554070669839883</v>
+      </c>
+      <c r="F43">
+        <v>-0.001126862255946855</v>
+      </c>
+      <c r="G43">
+        <v>0.02003593078728628</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.003132509821565318</v>
+        <v>0.01655944891909169</v>
       </c>
       <c r="C44">
-        <v>0.0009532876543019683</v>
+        <v>0.04783596821161402</v>
       </c>
       <c r="D44">
-        <v>-0.0284000454813612</v>
+        <v>0.006532593515339768</v>
       </c>
       <c r="E44">
-        <v>0.00163209520504538</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.01635706523317479</v>
+      </c>
+      <c r="F44">
+        <v>0.01901576382239847</v>
+      </c>
+      <c r="G44">
+        <v>0.03578432519642294</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.01048318893762352</v>
+        <v>0.005537263230750079</v>
       </c>
       <c r="C46">
-        <v>-0.01850097732218337</v>
+        <v>0.01670543881371468</v>
       </c>
       <c r="D46">
-        <v>-0.01687190836278312</v>
+        <v>0.01160218223329158</v>
       </c>
       <c r="E46">
-        <v>-0.004215977429929079</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.0005274052136014474</v>
+      </c>
+      <c r="F46">
+        <v>-0.01482096000392097</v>
+      </c>
+      <c r="G46">
+        <v>0.02608178003952695</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.0001390048627941177</v>
+        <v>0.07343218064113045</v>
       </c>
       <c r="C47">
-        <v>-0.061895297627644</v>
+        <v>0.06418645148198561</v>
       </c>
       <c r="D47">
-        <v>-0.04653733338239367</v>
+        <v>-0.005248746292744933</v>
       </c>
       <c r="E47">
-        <v>-0.008235289697963668</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.01695351312225463</v>
+      </c>
+      <c r="F47">
+        <v>-0.05947331521709408</v>
+      </c>
+      <c r="G47">
+        <v>0.02592093827870062</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.002345804345955684</v>
+        <v>0.02174138496767817</v>
       </c>
       <c r="C48">
-        <v>-0.02721183783034377</v>
+        <v>0.009793621407039611</v>
       </c>
       <c r="D48">
-        <v>-0.01063644064618859</v>
+        <v>0.0006429204356645592</v>
       </c>
       <c r="E48">
-        <v>3.396479572043057e-05</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.0002543940516895546</v>
+      </c>
+      <c r="F48">
+        <v>-0.01478211615185489</v>
+      </c>
+      <c r="G48">
+        <v>0.02834598927354184</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.001592783003585933</v>
+        <v>0.08028965851074239</v>
       </c>
       <c r="C50">
-        <v>-0.05212015061159895</v>
+        <v>0.06562352131842134</v>
       </c>
       <c r="D50">
-        <v>-0.0604770205807407</v>
+        <v>-0.004197953232902149</v>
       </c>
       <c r="E50">
-        <v>0.0158279577239929</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.01680055909075251</v>
+      </c>
+      <c r="F50">
+        <v>-0.05545652555320463</v>
+      </c>
+      <c r="G50">
+        <v>0.04603683814445327</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.006946843493320533</v>
+        <v>0.01186353836152391</v>
       </c>
       <c r="C51">
-        <v>-0.01811805410653595</v>
+        <v>0.02863834118239675</v>
       </c>
       <c r="D51">
-        <v>0.01304099582905066</v>
+        <v>0.008959871395066496</v>
       </c>
       <c r="E51">
-        <v>0.0107413264018462</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.009916458545934778</v>
+      </c>
+      <c r="F51">
+        <v>0.02968315998020161</v>
+      </c>
+      <c r="G51">
+        <v>0.04803825799278016</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.002922340020475846</v>
+        <v>0.09498030466350137</v>
       </c>
       <c r="C53">
-        <v>-0.08678670033250023</v>
+        <v>0.07974286804894763</v>
       </c>
       <c r="D53">
-        <v>-0.09976602039687053</v>
+        <v>-0.00592753327902076</v>
       </c>
       <c r="E53">
-        <v>-0.006001910091340081</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.04165784426916774</v>
+      </c>
+      <c r="F53">
+        <v>-0.06459642630725636</v>
+      </c>
+      <c r="G53">
+        <v>0.02526320565326443</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.001568036147805717</v>
+        <v>0.02937463099058523</v>
       </c>
       <c r="C54">
-        <v>-0.03567096885639282</v>
+        <v>0.006873784005501575</v>
       </c>
       <c r="D54">
-        <v>0.01129676055148783</v>
+        <v>-0.003439612957051673</v>
       </c>
       <c r="E54">
-        <v>0.01372070336337325</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.003765789646010184</v>
+      </c>
+      <c r="F54">
+        <v>-0.0009480895836028114</v>
+      </c>
+      <c r="G54">
+        <v>0.03304971848129742</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.0008521159730254398</v>
+        <v>0.07278603327857038</v>
       </c>
       <c r="C55">
-        <v>-0.06124946894421415</v>
+        <v>0.07315330620794794</v>
       </c>
       <c r="D55">
-        <v>-0.08519639819574933</v>
+        <v>-0.004954220371698943</v>
       </c>
       <c r="E55">
-        <v>-0.01771339341205776</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.03275091841188066</v>
+      </c>
+      <c r="F55">
+        <v>-0.05837566722431984</v>
+      </c>
+      <c r="G55">
+        <v>0.01132733876047865</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.00036791377586891</v>
+        <v>0.1424235384018405</v>
       </c>
       <c r="C56">
-        <v>-0.1077330528640723</v>
+        <v>0.1036314243512785</v>
       </c>
       <c r="D56">
-        <v>-0.1304148452047156</v>
+        <v>-0.01414181393289669</v>
       </c>
       <c r="E56">
-        <v>-0.02124430612572851</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.04781804217640528</v>
+      </c>
+      <c r="F56">
+        <v>-0.09813098714972231</v>
+      </c>
+      <c r="G56">
+        <v>0.002083124020534162</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.02283177236093258</v>
+        <v>0.01184380464492212</v>
       </c>
       <c r="C57">
-        <v>-0.0172254684875009</v>
+        <v>0.01155332453392251</v>
       </c>
       <c r="D57">
-        <v>-0.04188284903355272</v>
+        <v>0.02374160672847508</v>
       </c>
       <c r="E57">
-        <v>-0.01570826820561646</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>-0.02928404196245954</v>
+      </c>
+      <c r="F57">
+        <v>0.01418587050480721</v>
+      </c>
+      <c r="G57">
+        <v>0.0201152384903019</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.008556141921920092</v>
+        <v>0.0745429627729943</v>
       </c>
       <c r="C58">
-        <v>-0.08812474580405998</v>
+        <v>0.05828369537768196</v>
       </c>
       <c r="D58">
-        <v>-0.08711517707805937</v>
+        <v>0.01985442850688597</v>
       </c>
       <c r="E58">
-        <v>-0.2213454815746393</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.9336155598305002</v>
+      </c>
+      <c r="F58">
+        <v>-0.2690405533486017</v>
+      </c>
+      <c r="G58">
+        <v>0.02856074055493415</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.02203679512291909</v>
+        <v>0.153604096816936</v>
       </c>
       <c r="C59">
-        <v>-0.2230710332522295</v>
+        <v>-0.2103953500497519</v>
       </c>
       <c r="D59">
-        <v>0.1908712004700437</v>
+        <v>-0.01611535009665034</v>
       </c>
       <c r="E59">
-        <v>0.01978570088748226</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.01532336949523517</v>
+      </c>
+      <c r="F59">
+        <v>0.01228176650221602</v>
+      </c>
+      <c r="G59">
+        <v>0.02291724018480441</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.02848876468953219</v>
+        <v>0.2904977998472085</v>
       </c>
       <c r="C60">
-        <v>-0.1636032010558609</v>
+        <v>0.0939878360340433</v>
       </c>
       <c r="D60">
-        <v>-0.08328770147772614</v>
+        <v>0.0091977980943105</v>
       </c>
       <c r="E60">
-        <v>-0.05190913867302376</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.02345818900941415</v>
+      </c>
+      <c r="F60">
+        <v>0.3765173077958032</v>
+      </c>
+      <c r="G60">
+        <v>-0.09562072777411472</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.002885880912575458</v>
+        <v>0.03253305183509236</v>
       </c>
       <c r="C61">
-        <v>-0.01087745657286893</v>
+        <v>0.06439936783846918</v>
       </c>
       <c r="D61">
-        <v>-0.06700129665908916</v>
+        <v>0.005310531856210136</v>
       </c>
       <c r="E61">
-        <v>-0.01229052840776878</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.01048182925835543</v>
+      </c>
+      <c r="F61">
+        <v>0.02077505574654924</v>
+      </c>
+      <c r="G61">
+        <v>0.02327939571578244</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.007040453575273741</v>
+        <v>0.01386189502255409</v>
       </c>
       <c r="C63">
-        <v>-0.008476474812976687</v>
+        <v>0.02691211014805351</v>
       </c>
       <c r="D63">
-        <v>-0.01140010368130109</v>
+        <v>0.007901643812042836</v>
       </c>
       <c r="E63">
-        <v>0.005594068092267708</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.007211014931734057</v>
+      </c>
+      <c r="F63">
+        <v>-0.008157550082613747</v>
+      </c>
+      <c r="G63">
+        <v>0.03267082668078477</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.006464267717797519</v>
+        <v>0.04933623003321937</v>
       </c>
       <c r="C64">
-        <v>-0.03547812461682859</v>
+        <v>0.03726847150437569</v>
       </c>
       <c r="D64">
-        <v>-0.06390642161975313</v>
+        <v>0.004711017888959437</v>
       </c>
       <c r="E64">
-        <v>-0.01435921953787469</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.006204402168754361</v>
+      </c>
+      <c r="F64">
+        <v>0.006138408327179137</v>
+      </c>
+      <c r="G64">
+        <v>0.02065338213813677</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.01733335037287762</v>
+        <v>0.08155345473107985</v>
       </c>
       <c r="C65">
-        <v>-0.02998870207245114</v>
+        <v>0.06526219447126545</v>
       </c>
       <c r="D65">
-        <v>-0.0954063697319352</v>
+        <v>0.0151808862201747</v>
       </c>
       <c r="E65">
-        <v>-0.007955672777397003</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.006926649645747774</v>
+      </c>
+      <c r="F65">
+        <v>0.03666998865411593</v>
+      </c>
+      <c r="G65">
+        <v>0.009544833915073372</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.005461033575458321</v>
+        <v>0.05274487138600616</v>
       </c>
       <c r="C66">
-        <v>0.002970377610688355</v>
+        <v>0.1163046723896968</v>
       </c>
       <c r="D66">
-        <v>-0.1165977658281173</v>
+        <v>0.01151809570814888</v>
       </c>
       <c r="E66">
-        <v>-0.03754712876958752</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.02270628542956333</v>
+      </c>
+      <c r="F66">
+        <v>0.04411229083771435</v>
+      </c>
+      <c r="G66">
+        <v>0.0138568082037549</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.001708119467375057</v>
+        <v>0.05648999245751493</v>
       </c>
       <c r="C67">
-        <v>-0.04489490717464084</v>
+        <v>0.03076031657310998</v>
       </c>
       <c r="D67">
-        <v>-0.02688972845192468</v>
+        <v>-0.006400143771110139</v>
       </c>
       <c r="E67">
-        <v>-0.003085914817476391</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.004711393178079918</v>
+      </c>
+      <c r="F67">
+        <v>-0.003518968960793894</v>
+      </c>
+      <c r="G67">
+        <v>0.02745625554544555</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.03906340407015484</v>
+        <v>0.1369227253909764</v>
       </c>
       <c r="C68">
-        <v>-0.1888527686116702</v>
+        <v>-0.2711382584884293</v>
       </c>
       <c r="D68">
-        <v>0.183069094754268</v>
+        <v>0.001730483334161096</v>
       </c>
       <c r="E68">
-        <v>0.01517741903315172</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.01366776963936105</v>
+      </c>
+      <c r="F68">
+        <v>-0.01982200153371232</v>
+      </c>
+      <c r="G68">
+        <v>0.02188309747083213</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.003605623165847414</v>
+        <v>0.07795619102577132</v>
       </c>
       <c r="C69">
-        <v>-0.04929725987055457</v>
+        <v>0.06524934151587539</v>
       </c>
       <c r="D69">
-        <v>-0.05256740407365854</v>
+        <v>-0.009349716435837912</v>
       </c>
       <c r="E69">
-        <v>-0.004190447240921245</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.03483147498393011</v>
+      </c>
+      <c r="F69">
+        <v>-0.04186941687977216</v>
+      </c>
+      <c r="G69">
+        <v>0.0254509865286853</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.02708035653570519</v>
+        <v>0.1321103978819649</v>
       </c>
       <c r="C71">
-        <v>-0.1688152233283216</v>
+        <v>-0.2279274682076223</v>
       </c>
       <c r="D71">
-        <v>0.1600350571789059</v>
+        <v>-0.007169857193502312</v>
       </c>
       <c r="E71">
-        <v>0.02390721735309066</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.02429833225316406</v>
+      </c>
+      <c r="F71">
+        <v>-0.01577594964925047</v>
+      </c>
+      <c r="G71">
+        <v>0.03464241086505794</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.003111249931721161</v>
+        <v>0.08456361150303096</v>
       </c>
       <c r="C72">
-        <v>-0.05522513674512877</v>
+        <v>0.07649350744128969</v>
       </c>
       <c r="D72">
-        <v>-0.1385232304777839</v>
+        <v>-0.008966251018794561</v>
       </c>
       <c r="E72">
-        <v>-0.04064270669755301</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.01464567592655771</v>
+      </c>
+      <c r="F72">
+        <v>0.03476579743214925</v>
+      </c>
+      <c r="G72">
+        <v>0.003294128842633774</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.04169304267725669</v>
+        <v>0.4023210169668403</v>
       </c>
       <c r="C73">
-        <v>-0.1976550086934932</v>
+        <v>0.1091106373719002</v>
       </c>
       <c r="D73">
-        <v>-0.1442854360451646</v>
+        <v>0.0137244435639887</v>
       </c>
       <c r="E73">
-        <v>-0.1209729436718777</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.08733095654013287</v>
+      </c>
+      <c r="F73">
+        <v>0.5370594558135839</v>
+      </c>
+      <c r="G73">
+        <v>-0.154505277506578</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.001430489716854205</v>
+        <v>0.1153882386022426</v>
       </c>
       <c r="C74">
-        <v>-0.09940453703649124</v>
+        <v>0.1181816902123577</v>
       </c>
       <c r="D74">
-        <v>-0.1270126033841149</v>
+        <v>-0.01058271708304291</v>
       </c>
       <c r="E74">
-        <v>-0.02823104809184447</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.0421509102128972</v>
+      </c>
+      <c r="F74">
+        <v>-0.06956018871492958</v>
+      </c>
+      <c r="G74">
+        <v>0.02432538111423643</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.0008759838635227905</v>
+        <v>0.2581032188158637</v>
       </c>
       <c r="C75">
-        <v>-0.2308198767404925</v>
+        <v>0.1502441784901386</v>
       </c>
       <c r="D75">
-        <v>-0.2155263566830393</v>
+        <v>-0.03191279706125379</v>
       </c>
       <c r="E75">
-        <v>-0.05692899225190572</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.07700352025356409</v>
+      </c>
+      <c r="F75">
+        <v>-0.2174898588077063</v>
+      </c>
+      <c r="G75">
+        <v>-0.0306616556934995</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.00609280175081928</v>
+        <v>0.1353138289101458</v>
       </c>
       <c r="C76">
-        <v>-0.1750151654233314</v>
+        <v>0.1225895802269394</v>
       </c>
       <c r="D76">
-        <v>-0.2029359257473774</v>
+        <v>-0.02209241434566693</v>
       </c>
       <c r="E76">
-        <v>-0.02144212326361908</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.07361349467063907</v>
+      </c>
+      <c r="F76">
+        <v>-0.1303269859873539</v>
+      </c>
+      <c r="G76">
+        <v>0.015677447395818</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.01200278660394448</v>
+        <v>0.0621899080632522</v>
       </c>
       <c r="C77">
-        <v>-0.01637126286320221</v>
+        <v>0.06308425626559874</v>
       </c>
       <c r="D77">
-        <v>-0.06199914896585725</v>
+        <v>0.01253114048283384</v>
       </c>
       <c r="E77">
-        <v>-0.01406369579915306</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.0500126042388934</v>
+      </c>
+      <c r="F77">
+        <v>0.01196444856418059</v>
+      </c>
+      <c r="G77">
+        <v>0.05145944518126436</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.004236369925301793</v>
+        <v>0.03997024158786058</v>
       </c>
       <c r="C78">
-        <v>-0.01696978133789939</v>
+        <v>0.05109113537625344</v>
       </c>
       <c r="D78">
-        <v>-0.06318782593379499</v>
+        <v>0.005525093799910787</v>
       </c>
       <c r="E78">
-        <v>-0.009505606414630555</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.02209769995762715</v>
+      </c>
+      <c r="F78">
+        <v>0.03889719205114175</v>
+      </c>
+      <c r="G78">
+        <v>0.03412959404148438</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.01403090599319113</v>
+        <v>0.06006950503067597</v>
       </c>
       <c r="C80">
-        <v>-0.1441075177771574</v>
+        <v>0.06895719924416781</v>
       </c>
       <c r="D80">
-        <v>-0.2720314848421307</v>
+        <v>0.01234948062883032</v>
       </c>
       <c r="E80">
-        <v>0.8883054504912556</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.04459451848961212</v>
+      </c>
+      <c r="F80">
+        <v>0.0774857000459805</v>
+      </c>
+      <c r="G80">
+        <v>0.9148499116845989</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.0003342209774619092</v>
+        <v>0.1437347615051428</v>
       </c>
       <c r="C81">
-        <v>-0.1462616327275787</v>
+        <v>0.09354579377930865</v>
       </c>
       <c r="D81">
-        <v>-0.1424375663636503</v>
+        <v>-0.01623283079817191</v>
       </c>
       <c r="E81">
-        <v>-0.02709234417158308</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.04769585854360337</v>
+      </c>
+      <c r="F81">
+        <v>-0.1351262307896853</v>
+      </c>
+      <c r="G81">
+        <v>0.01780193491234923</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.05355505417962726</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.03721777144569538</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>-0.003002059921706255</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.01821273007186978</v>
+      </c>
+      <c r="F82">
+        <v>-0.006320395246099378</v>
+      </c>
+      <c r="G82">
+        <v>-0.006636766069840636</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.006364491860718183</v>
+        <v>0.0282201902777349</v>
       </c>
       <c r="C83">
-        <v>-0.02929679985161454</v>
+        <v>0.02139828664103627</v>
       </c>
       <c r="D83">
-        <v>-0.02699656396684834</v>
+        <v>0.005294324116956484</v>
       </c>
       <c r="E83">
-        <v>-0.01139805704973731</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.0261139129259318</v>
+      </c>
+      <c r="F83">
+        <v>0.01787003904939146</v>
+      </c>
+      <c r="G83">
+        <v>0.02219660653738605</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.00776694585301057</v>
+        <v>0.234362177185347</v>
       </c>
       <c r="C85">
-        <v>-0.1836731979369557</v>
+        <v>0.1498339274215116</v>
       </c>
       <c r="D85">
-        <v>-0.2266409671297857</v>
+        <v>-0.02070881973144166</v>
       </c>
       <c r="E85">
-        <v>-0.0621080176851657</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.1284219428308621</v>
+      </c>
+      <c r="F85">
+        <v>-0.1927930610263359</v>
+      </c>
+      <c r="G85">
+        <v>-0.05770287388749221</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.005434038081321499</v>
+        <v>0.01282648033260841</v>
       </c>
       <c r="C86">
-        <v>-0.01193879973570814</v>
+        <v>0.02146823260711675</v>
       </c>
       <c r="D86">
-        <v>-0.008699654180144189</v>
+        <v>0.009595328833852706</v>
       </c>
       <c r="E86">
-        <v>-0.01998892031251999</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.0375614728374977</v>
+      </c>
+      <c r="F86">
+        <v>0.01763564974018497</v>
+      </c>
+      <c r="G86">
+        <v>0.04953307661224993</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.00716135114581561</v>
+        <v>0.01602060932367255</v>
       </c>
       <c r="C87">
-        <v>-0.01369259246806475</v>
+        <v>0.02815256279267217</v>
       </c>
       <c r="D87">
-        <v>-0.04002899816528471</v>
+        <v>0.01186748754705302</v>
       </c>
       <c r="E87">
-        <v>-0.0122735077440113</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.07905704161405558</v>
+      </c>
+      <c r="F87">
+        <v>0.03963129418143235</v>
+      </c>
+      <c r="G87">
+        <v>0.04398290790327943</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.02560134889245012</v>
+        <v>0.08970965735168006</v>
       </c>
       <c r="C88">
-        <v>-0.044553884399314</v>
+        <v>0.06089098111058283</v>
       </c>
       <c r="D88">
-        <v>-0.0248337847458759</v>
+        <v>0.02139130782664742</v>
       </c>
       <c r="E88">
-        <v>-0.004958432839583371</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.01520095481310539</v>
+      </c>
+      <c r="F88">
+        <v>-0.02000668521583729</v>
+      </c>
+      <c r="G88">
+        <v>0.02397600582311174</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.05206723769467428</v>
+        <v>0.2231387015540827</v>
       </c>
       <c r="C89">
-        <v>-0.3276623167739968</v>
+        <v>-0.3665792392174702</v>
       </c>
       <c r="D89">
-        <v>0.2872896872188136</v>
+        <v>-0.007824480754414408</v>
       </c>
       <c r="E89">
-        <v>0.01959058636556568</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.01803316598057707</v>
+      </c>
+      <c r="F89">
+        <v>-0.02955659756486856</v>
+      </c>
+      <c r="G89">
+        <v>0.03627630609563835</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.03914086178084103</v>
+        <v>0.1918759503840552</v>
       </c>
       <c r="C90">
-        <v>-0.2422350210956594</v>
+        <v>-0.334762941325038</v>
       </c>
       <c r="D90">
-        <v>0.2644765187976734</v>
+        <v>-0.01178362929482669</v>
       </c>
       <c r="E90">
-        <v>0.01485910836648557</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.0063658277929576</v>
+      </c>
+      <c r="F90">
+        <v>-0.04356986119843204</v>
+      </c>
+      <c r="G90">
+        <v>-0.002176307425983134</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.002760957177128328</v>
+        <v>0.204999637565188</v>
       </c>
       <c r="C91">
-        <v>-0.1945913466196084</v>
+        <v>0.138021511134786</v>
       </c>
       <c r="D91">
-        <v>-0.2138257325097078</v>
+        <v>-0.02558696006652231</v>
       </c>
       <c r="E91">
-        <v>-0.04362108348084911</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.09292628164775789</v>
+      </c>
+      <c r="F91">
+        <v>-0.1841046680721145</v>
+      </c>
+      <c r="G91">
+        <v>0.005501550244036201</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.004905538040392191</v>
+        <v>0.2078800992455767</v>
       </c>
       <c r="C92">
-        <v>-0.3502237904308131</v>
+        <v>-0.264357807029383</v>
       </c>
       <c r="D92">
-        <v>0.1535830624156543</v>
+        <v>-0.05300251740785117</v>
       </c>
       <c r="E92">
-        <v>-0.007217538656923044</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.01153617074207874</v>
+      </c>
+      <c r="F92">
+        <v>-0.1254223779921315</v>
+      </c>
+      <c r="G92">
+        <v>0.06344933440703625</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.0366178982277551</v>
+        <v>0.2187474010034484</v>
       </c>
       <c r="C93">
-        <v>-0.2810272521970471</v>
+        <v>-0.3320395678181616</v>
       </c>
       <c r="D93">
-        <v>0.2682390634895209</v>
+        <v>-0.01880145854531628</v>
       </c>
       <c r="E93">
-        <v>-0.006827927645035325</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.002827748144804227</v>
+      </c>
+      <c r="F93">
+        <v>-0.02449706030750764</v>
+      </c>
+      <c r="G93">
+        <v>-0.001046229398550128</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.01887135293236888</v>
+        <v>0.2824857574208715</v>
       </c>
       <c r="C94">
-        <v>-0.2448591624956215</v>
+        <v>0.1577648199021506</v>
       </c>
       <c r="D94">
-        <v>-0.2018756363387564</v>
+        <v>-0.01520959462141922</v>
       </c>
       <c r="E94">
-        <v>-0.09161667864778127</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.1288529615068055</v>
+      </c>
+      <c r="F94">
+        <v>-0.4057062268921922</v>
+      </c>
+      <c r="G94">
+        <v>-0.1144947876667066</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.006542404247896196</v>
+        <v>0.08198346424787742</v>
       </c>
       <c r="C95">
-        <v>-0.0506885755783016</v>
+        <v>0.07829733690134995</v>
       </c>
       <c r="D95">
-        <v>-0.06767360548762354</v>
+        <v>-0.00663876805390817</v>
       </c>
       <c r="E95">
-        <v>-0.1197571142996973</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.08408484525659339</v>
+      </c>
+      <c r="F95">
+        <v>0.1583693524308041</v>
+      </c>
+      <c r="G95">
+        <v>-0.04777771539846174</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.004074488485106777</v>
+        <v>0.2084543840685465</v>
       </c>
       <c r="C98">
-        <v>-0.1675062600349872</v>
+        <v>0.05040294529877416</v>
       </c>
       <c r="D98">
-        <v>-0.1113483881321971</v>
+        <v>-0.01601637528188203</v>
       </c>
       <c r="E98">
-        <v>-0.07833391108553633</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.07802704997861043</v>
+      </c>
+      <c r="F98">
+        <v>0.2441586841276347</v>
+      </c>
+      <c r="G98">
+        <v>-0.04289605431746005</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.006968382447087151</v>
+        <v>0.01338159805761365</v>
       </c>
       <c r="C101">
-        <v>-0.01971164940693187</v>
+        <v>0.02073776412636287</v>
       </c>
       <c r="D101">
-        <v>-0.01447362567501398</v>
+        <v>0.006886028804396579</v>
       </c>
       <c r="E101">
-        <v>0.005715782716632836</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.008448955742054717</v>
+      </c>
+      <c r="F101">
+        <v>-0.01313587235773914</v>
+      </c>
+      <c r="G101">
+        <v>0.02853290119069876</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.01290008740835453</v>
+        <v>0.1224759658740036</v>
       </c>
       <c r="C102">
-        <v>-0.1138747174157919</v>
+        <v>0.08223131104720996</v>
       </c>
       <c r="D102">
-        <v>-0.1118663860242459</v>
+        <v>1.335544633283243e-05</v>
       </c>
       <c r="E102">
-        <v>-0.03206488626220122</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.04039982230813732</v>
+      </c>
+      <c r="F102">
+        <v>-0.05744121823430614</v>
+      </c>
+      <c r="G102">
+        <v>-0.007277211274729648</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>0.001989904798977367</v>
+        <v>0.004135776083867932</v>
       </c>
       <c r="C103">
-        <v>-0.01619428247509206</v>
+        <v>0.005603068384314382</v>
       </c>
       <c r="D103">
-        <v>-0.0278554053263158</v>
+        <v>0.0007073971460483341</v>
       </c>
       <c r="E103">
-        <v>0.01089163746237178</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>-0.0002808795802481834</v>
+      </c>
+      <c r="F103">
+        <v>-0.008457769935133931</v>
+      </c>
+      <c r="G103">
+        <v>0.01847953107173212</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.9859677179276432</v>
+        <v>0.03720860373768651</v>
       </c>
       <c r="C104">
-        <v>0.09508631775143767</v>
+        <v>-0.0431041428195904</v>
       </c>
       <c r="D104">
-        <v>-0.005231528145933219</v>
+        <v>0.9865214825748282</v>
       </c>
       <c r="E104">
-        <v>0.02268422023757867</v>
+        <v>0.0462756582165537</v>
+      </c>
+      <c r="F104">
+        <v>-0.04126190104864606</v>
+      </c>
+      <c r="G104">
+        <v>-0.003886611387022496</v>
       </c>
     </row>
   </sheetData>
